--- a/Code/Results/Cases/Case_3_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.503196489905861</v>
+        <v>0.992188944464516</v>
       </c>
       <c r="C2">
-        <v>0.1302814210963135</v>
+        <v>0.04217500932493579</v>
       </c>
       <c r="D2">
-        <v>0.05310814195838276</v>
+        <v>0.09010727540739083</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.386740620346018</v>
+        <v>1.82189692221371</v>
       </c>
       <c r="G2">
-        <v>0.0008230464518656681</v>
+        <v>0.002526713677461422</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9425755100936399</v>
+        <v>1.488173195535339</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.422387760060985</v>
+        <v>0.7524519804105125</v>
       </c>
       <c r="L2">
-        <v>0.3969042591285898</v>
+        <v>0.305419044121507</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.407011879133009</v>
+        <v>2.539220195181542</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.310855947184507</v>
+        <v>0.9459752841745512</v>
       </c>
       <c r="C3">
-        <v>0.1129599495469762</v>
+        <v>0.03700281875606493</v>
       </c>
       <c r="D3">
-        <v>0.05433410848151432</v>
+        <v>0.09026088554658074</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.29730273763191</v>
+        <v>1.807764980417915</v>
       </c>
       <c r="G3">
-        <v>0.0008291030281988506</v>
+        <v>0.002530571122601493</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.905403088046846</v>
+        <v>1.485483617240639</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.234502762668257</v>
+        <v>0.7051070124853709</v>
       </c>
       <c r="L3">
-        <v>0.3498573960721103</v>
+        <v>0.2946358510807983</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.438260096980706</v>
+        <v>2.553437943432222</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.194265182563811</v>
+        <v>0.9181663518681376</v>
       </c>
       <c r="C4">
-        <v>0.102428121284234</v>
+        <v>0.03381546066887609</v>
       </c>
       <c r="D4">
-        <v>0.05509194018601704</v>
+        <v>0.09035624849220625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.244711253205722</v>
+        <v>1.799999656348035</v>
       </c>
       <c r="G4">
-        <v>0.0008329358226004163</v>
+        <v>0.002533065751526336</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8841090122727593</v>
+        <v>1.484479200848874</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.120535588803563</v>
+        <v>0.6764588377691609</v>
       </c>
       <c r="L4">
-        <v>0.3214831580131374</v>
+        <v>0.2881963055578751</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.459142638917839</v>
+        <v>2.562874846457007</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.147089618205428</v>
+        <v>0.9069765079668173</v>
       </c>
       <c r="C5">
-        <v>0.09815763785955767</v>
+        <v>0.03251359684652755</v>
       </c>
       <c r="D5">
-        <v>0.05540214457325199</v>
+        <v>0.09039537693603172</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.223823251061177</v>
+        <v>1.797064258851918</v>
       </c>
       <c r="G5">
-        <v>0.0008345271765148146</v>
+        <v>0.002534114153021405</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.875792905018713</v>
+        <v>1.484232477529922</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.074400522556999</v>
+        <v>0.6648904733922905</v>
       </c>
       <c r="L5">
-        <v>0.3100366209475567</v>
+        <v>0.2856176885319144</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.468062422012125</v>
+        <v>2.566898127129662</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.139275252085326</v>
+        <v>0.9051270535697995</v>
       </c>
       <c r="C6">
-        <v>0.09744968288831046</v>
+        <v>0.03229724076604157</v>
       </c>
       <c r="D6">
-        <v>0.0554537402903108</v>
+        <v>0.09040189045634861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.220386492324835</v>
+        <v>1.796590664856154</v>
       </c>
       <c r="G6">
-        <v>0.0008347932210574848</v>
+        <v>0.002534290164161753</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8744331962443894</v>
+        <v>1.484201325931821</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.066757188971053</v>
+        <v>0.6629759554576822</v>
       </c>
       <c r="L6">
-        <v>0.3081425930567008</v>
+        <v>0.2851922605629795</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.469567845278334</v>
+        <v>2.567576916019789</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.193627650103082</v>
+        <v>0.9180148645377244</v>
       </c>
       <c r="C7">
-        <v>0.1023704477408387</v>
+        <v>0.03379791547409638</v>
       </c>
       <c r="D7">
-        <v>0.05509611797776515</v>
+        <v>0.09035677510484064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.244427401980758</v>
+        <v>1.799959141508012</v>
       </c>
       <c r="G7">
-        <v>0.0008329571639097012</v>
+        <v>0.002533079761581106</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8839954247607551</v>
+        <v>1.48447521530192</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.119912205354041</v>
+        <v>0.6763023936661057</v>
       </c>
       <c r="L7">
-        <v>0.3213283317868303</v>
+        <v>0.2881613450724387</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.459261295242911</v>
+        <v>2.562928386677775</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.436537944277944</v>
+        <v>0.9761369422066366</v>
       </c>
       <c r="C8">
-        <v>0.1242845115987592</v>
+        <v>0.04039400480102984</v>
       </c>
       <c r="D8">
-        <v>0.05352986225832446</v>
+        <v>0.09016002572307968</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.355394689345204</v>
+        <v>1.816834847327172</v>
       </c>
       <c r="G8">
-        <v>0.0008251115791617831</v>
+        <v>0.002528017604499625</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9294263978117314</v>
+        <v>1.487111475325761</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.357288478186916</v>
+        <v>0.7360398240411996</v>
       </c>
       <c r="L8">
-        <v>0.3805681518738879</v>
+        <v>0.3016633141103426</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.417423982986293</v>
+        <v>2.543975614402854</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.926946733235269</v>
+        <v>1.094612284411511</v>
       </c>
       <c r="C9">
-        <v>0.1683134213167676</v>
+        <v>0.0532404949301224</v>
       </c>
       <c r="D9">
-        <v>0.05049412485963778</v>
+        <v>0.08978229980558972</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.593435298818676</v>
+        <v>1.85717680244089</v>
       </c>
       <c r="G9">
-        <v>0.0008105931177519504</v>
+        <v>0.002519087018186185</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.031793768240703</v>
+        <v>1.497421653740439</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.835977785604882</v>
+        <v>0.8565421567702174</v>
       </c>
       <c r="L9">
-        <v>0.5014285171667154</v>
+        <v>0.3295842577677632</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.349640318792083</v>
+        <v>2.512427099460638</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.299029230877352</v>
+        <v>1.184414206860822</v>
       </c>
       <c r="C10">
-        <v>0.2016621690639795</v>
+        <v>0.06263088563437691</v>
       </c>
       <c r="D10">
-        <v>0.04827917619326172</v>
+        <v>0.08950944299350461</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.783810319297984</v>
+        <v>1.891260935272655</v>
       </c>
       <c r="G10">
-        <v>0.0008003974050124973</v>
+        <v>0.002513126646994476</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.116823228744465</v>
+        <v>1.50814270694643</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.198957727986738</v>
+        <v>0.9471466927828089</v>
       </c>
       <c r="L10">
-        <v>0.5940306871980283</v>
+        <v>0.3509866276233282</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.309745822378048</v>
+        <v>2.492682825267721</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.471647276733052</v>
+        <v>1.225870479762136</v>
       </c>
       <c r="C11">
-        <v>0.2171396650708886</v>
+        <v>0.06689374879958621</v>
       </c>
       <c r="D11">
-        <v>0.04727358436707263</v>
+        <v>0.08938626800408578</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.874526796908299</v>
+        <v>1.907737862487352</v>
       </c>
       <c r="G11">
-        <v>0.0007958474300406695</v>
+        <v>0.002510544236078438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.158063598139066</v>
+        <v>1.513706056894392</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.367338232969757</v>
+        <v>0.9888208439592745</v>
       </c>
       <c r="L11">
-        <v>0.6372169711455768</v>
+        <v>0.3609181878510412</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.294048691331511</v>
+        <v>2.484448567300007</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.537568268583925</v>
+        <v>1.241655993069514</v>
       </c>
       <c r="C12">
-        <v>0.2230529978270965</v>
+        <v>0.06850679765432233</v>
       </c>
       <c r="D12">
-        <v>0.04689298468838743</v>
+        <v>0.08933975746369249</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.909539309353605</v>
+        <v>1.914117381144848</v>
       </c>
       <c r="G12">
-        <v>0.0007941358766194684</v>
+        <v>0.002509584788745479</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.17408776673517</v>
+        <v>1.515911629067332</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.431641774357217</v>
+        <v>1.004667845830795</v>
       </c>
       <c r="L12">
-        <v>0.6537444204409439</v>
+        <v>0.3647072390475898</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.288485230565527</v>
+        <v>2.481438157658516</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.523345134413148</v>
+        <v>1.238252435428137</v>
       </c>
       <c r="C13">
-        <v>0.2217769881140867</v>
+        <v>0.0681594511774648</v>
       </c>
       <c r="D13">
-        <v>0.04697494630367771</v>
+        <v>0.08934976846916065</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.901968213609734</v>
+        <v>1.912737203321711</v>
       </c>
       <c r="G13">
-        <v>0.0007945040032987805</v>
+        <v>0.002509790603501121</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.170617893155807</v>
+        <v>1.515432220497061</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.417767535576729</v>
+        <v>1.001251977811222</v>
       </c>
       <c r="L13">
-        <v>0.6501768525903486</v>
+        <v>0.3638899444213592</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.289666009160854</v>
+        <v>2.482081708360212</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.477059091981005</v>
+        <v>1.227167421744127</v>
       </c>
       <c r="C14">
-        <v>0.2176250594878582</v>
+        <v>0.06702647903946968</v>
       </c>
       <c r="D14">
-        <v>0.04724226877294591</v>
+        <v>0.08938243890354158</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.877393650145919</v>
+        <v>1.908259900457111</v>
       </c>
       <c r="G14">
-        <v>0.0007957063981737925</v>
+        <v>0.002510464932203066</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.159373514172444</v>
+        <v>1.513885528543156</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.372617228653041</v>
+        <v>0.9901232649726239</v>
       </c>
       <c r="L14">
-        <v>0.6385730838757837</v>
+        <v>0.3612293501009702</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.293583180273131</v>
+        <v>2.484198738760554</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.448781986115137</v>
+        <v>1.220388848802543</v>
       </c>
       <c r="C15">
-        <v>0.2150889576324317</v>
+        <v>0.06633234608997896</v>
       </c>
       <c r="D15">
-        <v>0.04740603444227354</v>
+        <v>0.08940246773358673</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.86242914142197</v>
+        <v>1.905535672848174</v>
       </c>
       <c r="G15">
-        <v>0.0007964443484463018</v>
+        <v>0.002510880378863361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.152540283801486</v>
+        <v>1.51295101348822</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.345034165418241</v>
+        <v>0.9833151925676589</v>
       </c>
       <c r="L15">
-        <v>0.6314887291864295</v>
+        <v>0.3596033318581533</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.296033026148947</v>
+        <v>2.485509517014393</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.287821738459741</v>
+        <v>1.181717108924659</v>
       </c>
       <c r="C16">
-        <v>0.2006575370409109</v>
+        <v>0.06235212501913168</v>
       </c>
       <c r="D16">
-        <v>0.0483449262668092</v>
+        <v>0.08951751157646015</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.777970278512569</v>
+        <v>1.890203712366684</v>
       </c>
       <c r="G16">
-        <v>0.000800696425501064</v>
+        <v>0.002513298001143433</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.114182853409375</v>
+        <v>1.507792952848305</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.188025313790007</v>
+        <v>0.9444324065082697</v>
       </c>
       <c r="L16">
-        <v>0.5912314770435501</v>
+        <v>0.3503415170329731</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.310823339083484</v>
+        <v>2.493236015130577</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.189986249465221</v>
+        <v>1.158148137567821</v>
       </c>
       <c r="C17">
-        <v>0.1918885231546454</v>
+        <v>0.0599081661921872</v>
       </c>
       <c r="D17">
-        <v>0.04892135120499042</v>
+        <v>0.08958832788564308</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.727257915991359</v>
+        <v>1.881047191982987</v>
       </c>
       <c r="G17">
-        <v>0.0008033266510940023</v>
+        <v>0.00251481410585916</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.091334218495831</v>
+        <v>1.504804541090806</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.092589839163622</v>
+        <v>0.9206963652341358</v>
       </c>
       <c r="L17">
-        <v>0.5668211612535856</v>
+        <v>0.3447098192182239</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.320543719644945</v>
+        <v>2.498167592194818</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.134025049851346</v>
+        <v>1.144648830909603</v>
       </c>
       <c r="C18">
-        <v>0.1868731744714154</v>
+        <v>0.05850162631611511</v>
       </c>
       <c r="D18">
-        <v>0.04925308892225644</v>
+        <v>0.08962914905414365</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.698472249221183</v>
+        <v>1.875872063265376</v>
       </c>
       <c r="G18">
-        <v>0.0008048478612118662</v>
+        <v>0.002515698276334815</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.078430689704959</v>
+        <v>1.503150272400781</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.037999880003582</v>
+        <v>0.9070870967299243</v>
       </c>
       <c r="L18">
-        <v>0.5528794884636028</v>
+        <v>0.3414890141261964</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.326363483116452</v>
+        <v>2.501074449901466</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.115128921169969</v>
+        <v>1.140087979593147</v>
       </c>
       <c r="C19">
-        <v>0.1851796976699802</v>
+        <v>0.0580252497569802</v>
       </c>
       <c r="D19">
-        <v>0.04936544570164791</v>
+        <v>0.0896429858771004</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.688789670605075</v>
+        <v>1.874135552573179</v>
       </c>
       <c r="G19">
-        <v>0.000805364391150129</v>
+        <v>0.002515999729939766</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.074101588801902</v>
+        <v>1.502601253315021</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.019566421280075</v>
+        <v>0.9024866277077308</v>
       </c>
       <c r="L19">
-        <v>0.5481753817971224</v>
+        <v>0.3404016627082171</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.328372446248238</v>
+        <v>2.502070736755925</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.200368300044772</v>
+        <v>1.160651201980329</v>
       </c>
       <c r="C20">
-        <v>0.1928190082133909</v>
+        <v>0.06016841614332691</v>
       </c>
       <c r="D20">
-        <v>0.04885997045798973</v>
+        <v>0.08958078012872406</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.732616245407812</v>
+        <v>1.882012451255008</v>
       </c>
       <c r="G20">
-        <v>0.0008030458011207681</v>
+        <v>0.002514651457786446</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.093741549079951</v>
+        <v>1.505115976950748</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.102717347144051</v>
+        <v>0.9232186486515275</v>
       </c>
       <c r="L20">
-        <v>0.5694093402526903</v>
+        <v>0.3453074183825606</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.319485086989829</v>
+        <v>2.497635335257542</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.490638775165394</v>
+        <v>1.230421000413628</v>
       </c>
       <c r="C21">
-        <v>0.2188430914220447</v>
+        <v>0.06735929255357576</v>
       </c>
       <c r="D21">
-        <v>0.04716374505784593</v>
+        <v>0.08937283921665795</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.884593298798308</v>
+        <v>1.909571189067492</v>
       </c>
       <c r="G21">
-        <v>0.0007953529261111686</v>
+        <v>0.002510266365339251</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.162664874205916</v>
+        <v>1.514337145311089</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.385863655787716</v>
+        <v>0.9933902483120107</v>
       </c>
       <c r="L21">
-        <v>0.6419764980150973</v>
+        <v>0.3620100656536493</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.292422040735545</v>
+        <v>2.483573990098833</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.683616577962994</v>
+        <v>1.276526220799326</v>
       </c>
       <c r="C22">
-        <v>0.2361608649865303</v>
+        <v>0.0720519560378392</v>
       </c>
       <c r="D22">
-        <v>0.04605626933518003</v>
+        <v>0.08923771254456447</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.9878037832042</v>
+        <v>1.928398963173464</v>
       </c>
       <c r="G22">
-        <v>0.0007903911080503432</v>
+        <v>0.002507507986946044</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.210105580223484</v>
+        <v>1.520939977322428</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.574111557796982</v>
+        <v>1.039635636203798</v>
       </c>
       <c r="L22">
-        <v>0.6904273538031163</v>
+        <v>0.3730905274986753</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.276969028691809</v>
+        <v>2.475012104309059</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.580295990914067</v>
+        <v>1.251872661207699</v>
       </c>
       <c r="C23">
-        <v>0.2268867815181892</v>
+        <v>0.06954800925552718</v>
       </c>
       <c r="D23">
-        <v>0.04664727726602536</v>
+        <v>0.08930976234547217</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.932338498407361</v>
+        <v>1.91827540885663</v>
       </c>
       <c r="G23">
-        <v>0.0007930337342435742</v>
+        <v>0.002508970376780218</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.184552424111175</v>
+        <v>1.517363138066443</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.473321736937294</v>
+        <v>1.014918418113496</v>
       </c>
       <c r="L23">
-        <v>0.6644669883162777</v>
+        <v>0.3671616181005106</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.285002063101075</v>
+        <v>2.479524202014588</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.195673690339277</v>
+        <v>1.159519408289952</v>
       </c>
       <c r="C24">
-        <v>0.1923982553116446</v>
+        <v>0.06005076174361079</v>
       </c>
       <c r="D24">
-        <v>0.04888771961728544</v>
+        <v>0.08958419213222513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.730192598726703</v>
+        <v>1.881575780079899</v>
       </c>
       <c r="G24">
-        <v>0.0008031727450670349</v>
+        <v>0.002514724951743901</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.092652473791489</v>
+        <v>1.504974978037637</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.098137842891703</v>
+        <v>0.9220782093962328</v>
       </c>
       <c r="L24">
-        <v>0.568238939096787</v>
+        <v>0.3450371910651313</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.31996297619412</v>
+        <v>2.497875745493502</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.792458158858409</v>
+        <v>1.062078383589267</v>
       </c>
       <c r="C25">
-        <v>0.1562545423377628</v>
+        <v>0.04977402834731492</v>
       </c>
       <c r="D25">
-        <v>0.05131221785715923</v>
+        <v>0.08988364718895347</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.526554397568759</v>
+        <v>1.845484548650177</v>
       </c>
       <c r="G25">
-        <v>0.0008144336167345684</v>
+        <v>0.002521396986247832</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.002510093888297</v>
+        <v>1.494080884048202</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.70474913040988</v>
+        <v>0.8235811115017952</v>
       </c>
       <c r="L25">
-        <v>0.4681374741551423</v>
+        <v>0.3218754488928965</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.366332437048911</v>
+        <v>2.520359401337259</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.992188944464516</v>
+        <v>1.503196489905747</v>
       </c>
       <c r="C2">
-        <v>0.04217500932493579</v>
+        <v>0.1302814210965693</v>
       </c>
       <c r="D2">
-        <v>0.09010727540739083</v>
+        <v>0.05310814195825486</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.82189692221371</v>
+        <v>1.386740620346046</v>
       </c>
       <c r="G2">
-        <v>0.002526713677461422</v>
+        <v>0.0008230464517958819</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.488173195535339</v>
+        <v>0.9425755100936399</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7524519804105125</v>
+        <v>1.4223877600609</v>
       </c>
       <c r="L2">
-        <v>0.305419044121507</v>
+        <v>0.3969042591286751</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.539220195181542</v>
+        <v>1.407011879133066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9459752841745512</v>
+        <v>1.310855947184621</v>
       </c>
       <c r="C3">
-        <v>0.03700281875606493</v>
+        <v>0.1129599495468341</v>
       </c>
       <c r="D3">
-        <v>0.09026088554658074</v>
+        <v>0.05433410848150189</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.807764980417915</v>
+        <v>1.29730273763191</v>
       </c>
       <c r="G3">
-        <v>0.002530571122601493</v>
+        <v>0.0008291030281292634</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.485483617240639</v>
+        <v>0.9054030880468318</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7051070124853709</v>
+        <v>1.234502762668285</v>
       </c>
       <c r="L3">
-        <v>0.2946358510807983</v>
+        <v>0.3498573960720819</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.553437943432222</v>
+        <v>1.438260096980606</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9181663518681376</v>
+        <v>1.19426518256364</v>
       </c>
       <c r="C4">
-        <v>0.03381546066887609</v>
+        <v>0.1024281212842055</v>
       </c>
       <c r="D4">
-        <v>0.09035624849220625</v>
+        <v>0.05509194018600638</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.799999656348035</v>
+        <v>1.244711253205736</v>
       </c>
       <c r="G4">
-        <v>0.002533065751526336</v>
+        <v>0.0008329358225681117</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.484479200848874</v>
+        <v>0.8841090122727735</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6764588377691609</v>
+        <v>1.120535588803648</v>
       </c>
       <c r="L4">
-        <v>0.2881963055578751</v>
+        <v>0.3214831580131658</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.562874846457007</v>
+        <v>1.459142638917889</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9069765079668173</v>
+        <v>1.147089618205484</v>
       </c>
       <c r="C5">
-        <v>0.03251359684652755</v>
+        <v>0.09815763785968556</v>
       </c>
       <c r="D5">
-        <v>0.09039537693603172</v>
+        <v>0.05540214457329107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.797064258851918</v>
+        <v>1.223823251061177</v>
       </c>
       <c r="G5">
-        <v>0.002534114153021405</v>
+        <v>0.0008345271765551305</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.484232477529922</v>
+        <v>0.8757929050186988</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6648904733922905</v>
+        <v>1.074400522556971</v>
       </c>
       <c r="L5">
-        <v>0.2856176885319144</v>
+        <v>0.3100366209475283</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.566898127129662</v>
+        <v>1.468062422012117</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9051270535697995</v>
+        <v>1.139275252085412</v>
       </c>
       <c r="C6">
-        <v>0.03229724076604157</v>
+        <v>0.09744968288816835</v>
       </c>
       <c r="D6">
-        <v>0.09040189045634861</v>
+        <v>0.05545374029023975</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.796590664856154</v>
+        <v>1.220386492324835</v>
       </c>
       <c r="G6">
-        <v>0.002534290164161753</v>
+        <v>0.0008347932210204301</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.484201325931821</v>
+        <v>0.8744331962444107</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6629759554576822</v>
+        <v>1.066757188970996</v>
       </c>
       <c r="L6">
-        <v>0.2851922605629795</v>
+        <v>0.3081425930566581</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.567576916019789</v>
+        <v>1.46956784527832</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9180148645377244</v>
+        <v>1.193627650103195</v>
       </c>
       <c r="C7">
-        <v>0.03379791547409638</v>
+        <v>0.1023704477409666</v>
       </c>
       <c r="D7">
-        <v>0.09035677510484064</v>
+        <v>0.05509611797775804</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.799959141508012</v>
+        <v>1.244427401980744</v>
       </c>
       <c r="G7">
-        <v>0.002533079761581106</v>
+        <v>0.0008329571639085688</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.48447521530192</v>
+        <v>0.883995424760748</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6763023936661057</v>
+        <v>1.119912205354012</v>
       </c>
       <c r="L7">
-        <v>0.2881613450724387</v>
+        <v>0.3213283317867166</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.562928386677775</v>
+        <v>1.459261295242911</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9761369422066366</v>
+        <v>1.436537944278001</v>
       </c>
       <c r="C8">
-        <v>0.04039400480102984</v>
+        <v>0.1242845115988729</v>
       </c>
       <c r="D8">
-        <v>0.09016002572307968</v>
+        <v>0.05352986225819478</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.816834847327172</v>
+        <v>1.355394689345204</v>
       </c>
       <c r="G8">
-        <v>0.002528017604499625</v>
+        <v>0.0008251115791880266</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.487111475325761</v>
+        <v>0.9294263978117314</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7360398240411996</v>
+        <v>1.357288478186945</v>
       </c>
       <c r="L8">
-        <v>0.3016633141103426</v>
+        <v>0.3805681518738453</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.543975614402854</v>
+        <v>1.417423982986293</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.094612284411511</v>
+        <v>1.926946733235241</v>
       </c>
       <c r="C9">
-        <v>0.0532404949301224</v>
+        <v>0.1683134213170945</v>
       </c>
       <c r="D9">
-        <v>0.08978229980558972</v>
+        <v>0.05049412485985272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.85717680244089</v>
+        <v>1.593435298818704</v>
       </c>
       <c r="G9">
-        <v>0.002519087018186185</v>
+        <v>0.0008105931177343436</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.497421653740439</v>
+        <v>1.031793768240703</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8565421567702174</v>
+        <v>1.835977785604769</v>
       </c>
       <c r="L9">
-        <v>0.3295842577677632</v>
+        <v>0.5014285171667296</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.512427099460638</v>
+        <v>1.349640318792069</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.184414206860822</v>
+        <v>2.299029230877352</v>
       </c>
       <c r="C10">
-        <v>0.06263088563437691</v>
+        <v>0.2016621690639511</v>
       </c>
       <c r="D10">
-        <v>0.08950944299350461</v>
+        <v>0.04827917619321198</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.891260935272655</v>
+        <v>1.783810319297984</v>
       </c>
       <c r="G10">
-        <v>0.002513126646994476</v>
+        <v>0.0008003974050083481</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.50814270694643</v>
+        <v>1.116823228744465</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9471466927828089</v>
+        <v>2.198957727986851</v>
       </c>
       <c r="L10">
-        <v>0.3509866276233282</v>
+        <v>0.5940306871980141</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.492682825267721</v>
+        <v>1.309745822377977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.225870479762136</v>
+        <v>2.471647276733108</v>
       </c>
       <c r="C11">
-        <v>0.06689374879958621</v>
+        <v>0.217139665070647</v>
       </c>
       <c r="D11">
-        <v>0.08938626800408578</v>
+        <v>0.04727358436718099</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.907737862487352</v>
+        <v>1.874526796908313</v>
       </c>
       <c r="G11">
-        <v>0.002510544236078438</v>
+        <v>0.0007958474300690464</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.513706056894392</v>
+        <v>1.158063598139066</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9888208439592745</v>
+        <v>2.367338232969757</v>
       </c>
       <c r="L11">
-        <v>0.3609181878510412</v>
+        <v>0.63721697114552</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.484448567300007</v>
+        <v>1.294048691331554</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.241655993069514</v>
+        <v>2.537568268583982</v>
       </c>
       <c r="C12">
-        <v>0.06850679765432233</v>
+        <v>0.2230529978271534</v>
       </c>
       <c r="D12">
-        <v>0.08933975746369249</v>
+        <v>0.04689298468838565</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.914117381144848</v>
+        <v>1.909539309353619</v>
       </c>
       <c r="G12">
-        <v>0.002509584788745479</v>
+        <v>0.0007941358766191981</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.515911629067332</v>
+        <v>1.174087766735155</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.004667845830795</v>
+        <v>2.431641774357246</v>
       </c>
       <c r="L12">
-        <v>0.3647072390475898</v>
+        <v>0.6537444204409297</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.481438157658516</v>
+        <v>1.288485230565612</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.238252435428137</v>
+        <v>2.523345134412864</v>
       </c>
       <c r="C13">
-        <v>0.0681594511774648</v>
+        <v>0.2217769881140867</v>
       </c>
       <c r="D13">
-        <v>0.08934976846916065</v>
+        <v>0.04697494630367416</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.912737203321711</v>
+        <v>1.901968213609749</v>
       </c>
       <c r="G13">
-        <v>0.002509790603501121</v>
+        <v>0.0007945040032967728</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.515432220497061</v>
+        <v>1.170617893155807</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.001251977811222</v>
+        <v>2.417767535576672</v>
       </c>
       <c r="L13">
-        <v>0.3638899444213592</v>
+        <v>0.6501768525902776</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.482081708360212</v>
+        <v>1.28966600916084</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.227167421744127</v>
+        <v>2.477059091981005</v>
       </c>
       <c r="C14">
-        <v>0.06702647903946968</v>
+        <v>0.2176250594877729</v>
       </c>
       <c r="D14">
-        <v>0.08938243890354158</v>
+        <v>0.04724226877305782</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.908259900457111</v>
+        <v>1.877393650145933</v>
       </c>
       <c r="G14">
-        <v>0.002510464932203066</v>
+        <v>0.0007957063981454214</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.513885528543156</v>
+        <v>1.159373514172444</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9901232649726239</v>
+        <v>2.37261722865307</v>
       </c>
       <c r="L14">
-        <v>0.3612293501009702</v>
+        <v>0.6385730838757269</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.484198738760554</v>
+        <v>1.293583180273117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.220388848802543</v>
+        <v>2.44878198611508</v>
       </c>
       <c r="C15">
-        <v>0.06633234608997896</v>
+        <v>0.215088957632517</v>
       </c>
       <c r="D15">
-        <v>0.08940246773358673</v>
+        <v>0.0474060344421563</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.905535672848174</v>
+        <v>1.86242914142197</v>
       </c>
       <c r="G15">
-        <v>0.002510880378863361</v>
+        <v>0.0007964443484641847</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.51295101348822</v>
+        <v>1.1525402838015</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9833151925676589</v>
+        <v>2.345034165418213</v>
       </c>
       <c r="L15">
-        <v>0.3596033318581533</v>
+        <v>0.6314887291864295</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.485509517014393</v>
+        <v>1.296033026148962</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.181717108924659</v>
+        <v>2.287821738459741</v>
       </c>
       <c r="C16">
-        <v>0.06235212501913168</v>
+        <v>0.2006575370406409</v>
       </c>
       <c r="D16">
-        <v>0.08951751157646015</v>
+        <v>0.04834492626689801</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.890203712366684</v>
+        <v>1.777970278512569</v>
       </c>
       <c r="G16">
-        <v>0.002513298001143433</v>
+        <v>0.0008006964254526627</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.507792952848305</v>
+        <v>1.114182853409361</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9444324065082697</v>
+        <v>2.188025313789979</v>
       </c>
       <c r="L16">
-        <v>0.3503415170329731</v>
+        <v>0.5912314770435785</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.493236015130577</v>
+        <v>1.31082333908347</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158148137567821</v>
+        <v>2.189986249465164</v>
       </c>
       <c r="C17">
-        <v>0.0599081661921872</v>
+        <v>0.1918885231547449</v>
       </c>
       <c r="D17">
-        <v>0.08958832788564308</v>
+        <v>0.0489213512050739</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.881047191982987</v>
+        <v>1.727257915991345</v>
       </c>
       <c r="G17">
-        <v>0.00251481410585916</v>
+        <v>0.0008033266511035739</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.504804541090806</v>
+        <v>1.091334218495845</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9206963652341358</v>
+        <v>2.092589839163622</v>
       </c>
       <c r="L17">
-        <v>0.3447098192182239</v>
+        <v>0.5668211612534861</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.498167592194818</v>
+        <v>1.320543719644917</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.144648830909603</v>
+        <v>2.134025049851402</v>
       </c>
       <c r="C18">
-        <v>0.05850162631611511</v>
+        <v>0.1868731744714154</v>
       </c>
       <c r="D18">
-        <v>0.08962914905414365</v>
+        <v>0.04925308892225644</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.875872063265376</v>
+        <v>1.698472249221169</v>
       </c>
       <c r="G18">
-        <v>0.002515698276334815</v>
+        <v>0.0008048478612124044</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.503150272400781</v>
+        <v>1.078430689704987</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9070870967299243</v>
+        <v>2.037999880003554</v>
       </c>
       <c r="L18">
-        <v>0.3414890141261964</v>
+        <v>0.5528794884636028</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.501074449901466</v>
+        <v>1.326363483116452</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140087979593147</v>
+        <v>2.115128921169969</v>
       </c>
       <c r="C19">
-        <v>0.0580252497569802</v>
+        <v>0.1851796976697528</v>
       </c>
       <c r="D19">
-        <v>0.0896429858771004</v>
+        <v>0.04936544570162837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.874135552573179</v>
+        <v>1.688789670605075</v>
       </c>
       <c r="G19">
-        <v>0.002515999729939766</v>
+        <v>0.0008053643911471835</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.502601253315021</v>
+        <v>1.074101588801895</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9024866277077308</v>
+        <v>2.019566421280075</v>
       </c>
       <c r="L19">
-        <v>0.3404016627082171</v>
+        <v>0.5481753817971651</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.502070736755925</v>
+        <v>1.328372446248281</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.160651201980329</v>
+        <v>2.200368300044715</v>
       </c>
       <c r="C20">
-        <v>0.06016841614332691</v>
+        <v>0.192819008213732</v>
       </c>
       <c r="D20">
-        <v>0.08958078012872406</v>
+        <v>0.04885997045779789</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.882012451255008</v>
+        <v>1.732616245407797</v>
       </c>
       <c r="G20">
-        <v>0.002514651457786446</v>
+        <v>0.0008030458011217901</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.505115976950748</v>
+        <v>1.093741549079951</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9232186486515275</v>
+        <v>2.102717347143908</v>
       </c>
       <c r="L20">
-        <v>0.3453074183825606</v>
+        <v>0.5694093402526477</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.497635335257542</v>
+        <v>1.3194850869898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.230421000413628</v>
+        <v>2.490638775165451</v>
       </c>
       <c r="C21">
-        <v>0.06735929255357576</v>
+        <v>0.2188430914222437</v>
       </c>
       <c r="D21">
-        <v>0.08937283921665795</v>
+        <v>0.04716374505772514</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.909571189067492</v>
+        <v>1.884593298798293</v>
       </c>
       <c r="G21">
-        <v>0.002510266365339251</v>
+        <v>0.0007953529261105161</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.514337145311089</v>
+        <v>1.162664874205916</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9933902483120107</v>
+        <v>2.385863655787659</v>
       </c>
       <c r="L21">
-        <v>0.3620100656536493</v>
+        <v>0.6419764980151115</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.483573990098833</v>
+        <v>1.292422040735474</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.276526220799326</v>
+        <v>2.683616577963107</v>
       </c>
       <c r="C22">
-        <v>0.0720519560378392</v>
+        <v>0.2361608649865445</v>
       </c>
       <c r="D22">
-        <v>0.08923771254456447</v>
+        <v>0.0460562693351747</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.928398963173464</v>
+        <v>1.9878037832042</v>
       </c>
       <c r="G22">
-        <v>0.002507507986946044</v>
+        <v>0.0007903911079442105</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.520939977322428</v>
+        <v>1.210105580223484</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.039635636203798</v>
+        <v>2.574111557796954</v>
       </c>
       <c r="L22">
-        <v>0.3730905274986753</v>
+        <v>0.6904273538031021</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.475012104309059</v>
+        <v>1.27696902869188</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.251872661207699</v>
+        <v>2.580295990914067</v>
       </c>
       <c r="C23">
-        <v>0.06954800925552718</v>
+        <v>0.2268867815181181</v>
       </c>
       <c r="D23">
-        <v>0.08930976234547217</v>
+        <v>0.04664727726601647</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.91827540885663</v>
+        <v>1.932338498407361</v>
       </c>
       <c r="G23">
-        <v>0.002508970376780218</v>
+        <v>0.0007930337342209677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.517363138066443</v>
+        <v>1.184552424111189</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.014918418113496</v>
+        <v>2.473321736937265</v>
       </c>
       <c r="L23">
-        <v>0.3671616181005106</v>
+        <v>0.6644669883162351</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.479524202014588</v>
+        <v>1.285002063101047</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.159519408289952</v>
+        <v>2.195673690339277</v>
       </c>
       <c r="C24">
-        <v>0.06005076174361079</v>
+        <v>0.1923982553118009</v>
       </c>
       <c r="D24">
-        <v>0.08958419213222513</v>
+        <v>0.04888771961726945</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.881575780079899</v>
+        <v>1.730192598726703</v>
       </c>
       <c r="G24">
-        <v>0.002514724951743901</v>
+        <v>0.0008031727451118979</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.504974978037637</v>
+        <v>1.092652473791489</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9220782093962328</v>
+        <v>2.098137842891759</v>
       </c>
       <c r="L24">
-        <v>0.3450371910651313</v>
+        <v>0.5682389390966875</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.497875745493502</v>
+        <v>1.319962976194162</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.062078383589267</v>
+        <v>1.792458158858295</v>
       </c>
       <c r="C25">
-        <v>0.04977402834731492</v>
+        <v>0.1562545423378765</v>
       </c>
       <c r="D25">
-        <v>0.08988364718895347</v>
+        <v>0.05131221785742213</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.845484548650177</v>
+        <v>1.526554397568788</v>
       </c>
       <c r="G25">
-        <v>0.002521396986247832</v>
+        <v>0.0008144336167312693</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.494080884048202</v>
+        <v>1.002510093888318</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8235811115017952</v>
+        <v>1.704749130410022</v>
       </c>
       <c r="L25">
-        <v>0.3218754488928965</v>
+        <v>0.468137474155057</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.520359401337259</v>
+        <v>1.366332437048953</v>
       </c>
       <c r="O25">
         <v>0</v>
